--- a/media/Показатели для ДКС.xlsx
+++ b/media/Показатели для ДКС.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JOB\DKS python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JOB\DKS_python\media\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4650" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="5580" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Лист2" sheetId="10" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <definedName name="нгш_2" localSheetId="2">Лист9!$H$1:$J$49</definedName>
     <definedName name="нгш_3" localSheetId="2">Лист9!$K$1:$L$49</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2598,15 +2598,15 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="нгш_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="нгш_3" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="нгш_3" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="нгш_2" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="нгш_2" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="нгш_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2875,13 +2875,15 @@
   <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V13" sqref="V13"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="50.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="75" x14ac:dyDescent="0.25">

--- a/media/Показатели для ДКС.xlsx
+++ b/media/Показатели для ДКС.xlsx
@@ -9,19 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="13950" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Лист2" sheetId="10" r:id="rId1"/>
     <sheet name="Лист1" sheetId="1" r:id="rId2"/>
-    <sheet name="Лист9" sheetId="9" r:id="rId3"/>
+    <sheet name="Лист3" sheetId="11" r:id="rId3"/>
+    <sheet name="Лист9" sheetId="9" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="нгш_1" localSheetId="2">Лист9!$A$1:$G$49</definedName>
-    <definedName name="нгш_2" localSheetId="2">Лист9!$H$1:$J$49</definedName>
-    <definedName name="нгш_3" localSheetId="2">Лист9!$K$1:$L$49</definedName>
+    <definedName name="нгш_1" localSheetId="3">Лист9!$A$1:$G$49</definedName>
+    <definedName name="нгш_2" localSheetId="3">Лист9!$H$1:$J$49</definedName>
+    <definedName name="нгш_3" localSheetId="3">Лист9!$K$1:$L$49</definedName>
   </definedNames>
-  <calcPr calcId="152511" refMode="R1C1"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -68,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1504" uniqueCount="796">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2784" uniqueCount="949">
   <si>
     <t>Расход, млн</t>
   </si>
@@ -2456,6 +2457,465 @@
   </si>
   <si>
     <t>K</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "stage_list": [</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "name": "string",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "dks_name": "string",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "dks_code": "string",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "field_name": "string",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "company_name": "string",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "shortName": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          "comp_nom": 0,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          "power_nom": 0,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          "p_out_nom": 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "mode": [</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "q_rate": [</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "bound_dict": [</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      },</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "count_GPA": 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "t_in": 288,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "r_value": 512,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "press_conditonal": 0.101325,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "temp_conditonal": 283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "k_value": 1.31,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "p_in": 3.1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  }</t>
+  </si>
+  <si>
+    <t>]</t>
+  </si>
+  <si>
+    <t>36.82,36.82</t>
+  </si>
+  <si>
+    <t>31.24,31.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "p_in": 3.11,</t>
+  </si>
+  <si>
+    <t>19.64,19.64</t>
+  </si>
+  <si>
+    <t>18.85,18.85</t>
+  </si>
+  <si>
+    <t>34.62,34.62</t>
+  </si>
+  <si>
+    <t>19.02,19.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "p_in": 3.15,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "p_target": 4.63,</t>
+  </si>
+  <si>
+    <t>18.44,18.44</t>
+  </si>
+  <si>
+    <t>32.94,32.94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "p_in": 3.03,</t>
+  </si>
+  <si>
+    <t>37.91,37.91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "p_in": 2.92,</t>
+  </si>
+  <si>
+    <t>37.47,37.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "p_in": 2.9,</t>
+  </si>
+  <si>
+    <t>34.51,34.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "p_in": 2.89,</t>
+  </si>
+  <si>
+    <t>32.87,32.87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "p_in": 2.53,</t>
+  </si>
+  <si>
+    <t>47.32,47.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "p_in": 1.54,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "p_in": 3.04,</t>
+  </si>
+  <si>
+    <t>18.50,18.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "table_params": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "conf_gdh": [</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "stage_list": [</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          "id": 4,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          "name": "string",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          "dks_name": "string",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          "dks_code": "string",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          "field_name": "string",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          "company_name": "string",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          "shortName": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "comp_nom": 0,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "power_nom": 0,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "p_out_nom": 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          "count_GPA": 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          "id": 3,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          "id": 5,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          "id": 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          "id": 2,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          "count_GPA": 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "q_rate": [20, 25, 30, 35, 40, 45, 50, 55, 60, 65, 70, 75, 80, 85, 90, 95, 100, 105, 110, 115],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "bounds": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "p_out_diff": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          "name": "Превышение предельного давления",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          "short_name": "Pпред",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          "dimen": "МПа",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          "disable": false,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          "min_value": 0.1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          "max_value": 7.7,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          "sensitivity": 0.1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          "precision": 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "freq_dimm": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          "name": "Нормированная частота",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          "short_name": "Норм. част.",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          "dimen": "д.ед.",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          "max_value": 1.05,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          "sensitivity": 0.01,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          "precision": 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "power": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          "name": "Мощность",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          "short_name": "Мощь.",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          "dimen": "кВт",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          "min_value": 7000,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          "max_value": 16000,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          "sensitivity": 200,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "comp": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          "name": "Степень сжатия",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          "short_name": "Степ. сж.",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          "min_value": 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          "max_value": 3.5,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "udal": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          "name": "Удаленность",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          "short_name": "Удал.",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          "min_value": 0,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          "max_value": 100,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          "sensitivity": 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "extra_bounds": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "k_value": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          "name": "Коэффициент политропы",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          "short_name": "Коэф-т политропы",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          "value": 1.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "t_in": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          "name": "Температура начала процесса сжатия",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          "short_name": "Твх",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          "dimen": "К",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          "value": 288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "r_value": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          "name": "Постоянная Больцмана поделенная на молярную массу",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          "short_name": "R",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          "dimen": "Дж/(кг*К)",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          "value": 512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "press_conditonal": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          "name": "Давление стандартное",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          "short_name": "Pст",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          "value": 0.101325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "temp_conditonal": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          "name": "Температура стандартная",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          "short_name": "Тст",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          "value": 283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "p_out": [6, 6.1, 6.2, 6.3, 6.4, 6.5, 6.6, 6.7, 6.8, 6.9, 7, 7.1, 7.2, 7.3, 7.4, 7.5, 7.6]</t>
+  </si>
+  <si>
+    <t>[</t>
+  </si>
+  <si>
+    <t>],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "id": 2,</t>
+  </si>
+  <si>
+    <t>Режимы</t>
+  </si>
+  <si>
+    <t>VFP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "id": 5,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "p_target": 6,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "p_target": 7,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "p_target":6,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "id": 6,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "id": 7,</t>
   </si>
 </sst>
 </file>
@@ -2515,7 +2975,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2579,6 +3039,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2874,8 +3337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2949,7 +3412,7 @@
       <c r="A2" s="3">
         <v>34.624765388143302</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="5">
         <v>3.0965549895377902</v>
       </c>
       <c r="C2" s="3">
@@ -3008,7 +3471,7 @@
       <c r="A3" s="3">
         <v>36.821942402201401</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="5">
         <v>3.0414081833962401</v>
       </c>
       <c r="C3" s="3">
@@ -3067,7 +3530,7 @@
       <c r="A4" s="3">
         <v>31.2402418032711</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="5">
         <v>3.1062797895010203</v>
       </c>
       <c r="C4" s="3">
@@ -3126,7 +3589,7 @@
       <c r="A5" s="3">
         <v>19.6367420469564</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="5">
         <v>3.1002074385391998</v>
       </c>
       <c r="C5" s="3">
@@ -3185,7 +3648,7 @@
       <c r="A6" s="3">
         <v>18.8492261556746</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="5">
         <v>3.1101475203714202</v>
       </c>
       <c r="C6" s="3">
@@ -3244,7 +3707,7 @@
       <c r="A7" s="3">
         <v>19.0233557272737</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="5">
         <v>3.1081145444037404</v>
       </c>
       <c r="C7" s="3">
@@ -3303,7 +3766,7 @@
       <c r="A8" s="3">
         <v>17.998685675186</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="5">
         <v>3.1463546280892203</v>
       </c>
       <c r="C8" s="3">
@@ -3362,7 +3825,7 @@
       <c r="A9" s="3">
         <v>18.437861741829398</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="5">
         <v>3.1116660435727899</v>
       </c>
       <c r="C9" s="3">
@@ -3421,7 +3884,7 @@
       <c r="A10" s="3">
         <v>32.941416488571399</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="5">
         <v>3.0281675734095401</v>
       </c>
       <c r="C10" s="3">
@@ -3480,7 +3943,7 @@
       <c r="A11" s="3">
         <v>37.914161696927302</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="5">
         <v>2.9225954255031801</v>
       </c>
       <c r="C11" s="3">
@@ -3539,7 +4002,7 @@
       <c r="A12" s="3">
         <v>37.470036406874002</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="5">
         <v>2.9045424110410898</v>
       </c>
       <c r="C12" s="3">
@@ -3598,7 +4061,7 @@
       <c r="A13" s="3">
         <v>34.511735324119705</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="5">
         <v>2.88914592119745</v>
       </c>
       <c r="C13" s="3">
@@ -3657,7 +4120,7 @@
       <c r="A14" s="3">
         <v>32.872343038203702</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="5">
         <v>2.5299077787645303</v>
       </c>
       <c r="C14" s="3">
@@ -3716,7 +4179,7 @@
       <c r="A15" s="3">
         <v>47.324570132113898</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="5">
         <v>1.5390856151094601</v>
       </c>
       <c r="C15" s="3">
@@ -8550,10 +9013,5208 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F671"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A222" workbookViewId="0">
+      <selection activeCell="AA545" sqref="AA545:AB546"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>941</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>796</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>856</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>796</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>797</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>798</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>947</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>799</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>800</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>801</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>802</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>803</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>804</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>805</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>806</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>807</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>808</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>821</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>819</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>798</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>948</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>799</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>800</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>801</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>802</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>803</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>804</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>805</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>806</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>807</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>808</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>821</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>809</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>810</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>811</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>796</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>797</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>798</v>
+      </c>
+      <c r="F38" s="28" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>940</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>799</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>800</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>801</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>802</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>803</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>804</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>805</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>806</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>807</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>808</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>821</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>819</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>798</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
+        <v>943</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
+        <v>799</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
+        <v>800</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
+        <v>801</v>
+      </c>
+      <c r="F56" s="28" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
+        <v>802</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
+        <v>803</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
+        <v>804</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="7" t="s">
+        <v>805</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="7" t="s">
+        <v>806</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
+        <v>807</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="7" t="s">
+        <v>808</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="7" t="s">
+        <v>821</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="7" t="s">
+        <v>809</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="7" t="s">
+        <v>829</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>939</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>812</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>813</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>814</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>836</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>815</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>828</v>
+      </c>
+      <c r="F74" s="28" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>944</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>822</v>
+      </c>
+      <c r="F76" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>823</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>826</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>824</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>825</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>827</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="7" t="s">
+        <v>813</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="7" t="s">
+        <v>814</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="7" t="s">
+        <v>831</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="7" t="s">
+        <v>815</v>
+      </c>
+      <c r="F85" s="7" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="7" t="s">
+        <v>853</v>
+      </c>
+      <c r="F86" s="7" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="7" t="s">
+        <v>944</v>
+      </c>
+      <c r="F87" s="7" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="7" t="s">
+        <v>822</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="7" t="s">
+        <v>823</v>
+      </c>
+      <c r="F89" s="7" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="7" t="s">
+        <v>826</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="7" t="s">
+        <v>824</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="7" t="s">
+        <v>825</v>
+      </c>
+      <c r="F92" s="7" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="7" t="s">
+        <v>827</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="7" t="s">
+        <v>813</v>
+      </c>
+      <c r="F94" s="7" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="7" t="s">
+        <v>814</v>
+      </c>
+      <c r="F95" s="7" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="7" t="s">
+        <v>832</v>
+      </c>
+      <c r="F96" s="7" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="7" t="s">
+        <v>815</v>
+      </c>
+      <c r="F97" s="7" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="7" t="s">
+        <v>833</v>
+      </c>
+      <c r="F98" s="7" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="7" t="s">
+        <v>944</v>
+      </c>
+      <c r="F99" s="7" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="7" t="s">
+        <v>822</v>
+      </c>
+      <c r="F100" s="7" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="7" t="s">
+        <v>823</v>
+      </c>
+      <c r="F101" s="7" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="7" t="s">
+        <v>826</v>
+      </c>
+      <c r="F102" s="7" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="7" t="s">
+        <v>824</v>
+      </c>
+      <c r="F103" s="7" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="7" t="s">
+        <v>825</v>
+      </c>
+      <c r="F104" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="7" t="s">
+        <v>827</v>
+      </c>
+      <c r="F105" s="7" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="7" t="s">
+        <v>813</v>
+      </c>
+      <c r="F106" s="7" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="7" t="s">
+        <v>814</v>
+      </c>
+      <c r="F107" s="7" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="7" t="s">
+        <v>834</v>
+      </c>
+      <c r="F108" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="7" t="s">
+        <v>815</v>
+      </c>
+      <c r="F109" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="7" t="s">
+        <v>828</v>
+      </c>
+      <c r="F110" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="7" t="s">
+        <v>944</v>
+      </c>
+      <c r="F111" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="7" t="s">
+        <v>822</v>
+      </c>
+      <c r="F112" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="7" t="s">
+        <v>823</v>
+      </c>
+      <c r="F113" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="7" t="s">
+        <v>826</v>
+      </c>
+      <c r="F114" s="7" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="7" t="s">
+        <v>824</v>
+      </c>
+      <c r="F115" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="7" t="s">
+        <v>825</v>
+      </c>
+      <c r="F116" s="7" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="7" t="s">
+        <v>827</v>
+      </c>
+      <c r="F117" s="7" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="7" t="s">
+        <v>813</v>
+      </c>
+      <c r="F118" s="7" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="7" t="s">
+        <v>814</v>
+      </c>
+      <c r="F119" s="7" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="7" t="s">
+        <v>835</v>
+      </c>
+      <c r="F120" s="7" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="7" t="s">
+        <v>815</v>
+      </c>
+      <c r="F121" s="7" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="7" t="s">
+        <v>833</v>
+      </c>
+      <c r="F122" s="7" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="7" t="s">
+        <v>944</v>
+      </c>
+      <c r="F123" s="7" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="7" t="s">
+        <v>822</v>
+      </c>
+      <c r="F124" s="7" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="7" t="s">
+        <v>823</v>
+      </c>
+      <c r="F125" s="7" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="7" t="s">
+        <v>826</v>
+      </c>
+      <c r="F126" s="7" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="7" t="s">
+        <v>824</v>
+      </c>
+      <c r="F127" s="7" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="7" t="s">
+        <v>825</v>
+      </c>
+      <c r="F128" s="7" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="7" t="s">
+        <v>827</v>
+      </c>
+      <c r="F129" s="7" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="7" t="s">
+        <v>813</v>
+      </c>
+      <c r="F130" s="7" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="7" t="s">
+        <v>814</v>
+      </c>
+      <c r="F131" s="7" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="7" t="s">
+        <v>837</v>
+      </c>
+      <c r="F132" s="7" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="7" t="s">
+        <v>815</v>
+      </c>
+      <c r="F133" s="7" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="7" t="s">
+        <v>833</v>
+      </c>
+      <c r="F134" s="7" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="7" t="s">
+        <v>944</v>
+      </c>
+      <c r="F135" s="7" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="7" t="s">
+        <v>822</v>
+      </c>
+      <c r="F136" s="7" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="7" t="s">
+        <v>823</v>
+      </c>
+      <c r="F137" s="7" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="7" t="s">
+        <v>826</v>
+      </c>
+      <c r="F138" s="7" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="7" t="s">
+        <v>824</v>
+      </c>
+      <c r="F139" s="7" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="7" t="s">
+        <v>825</v>
+      </c>
+      <c r="F140" s="7" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="7" t="s">
+        <v>827</v>
+      </c>
+      <c r="F141" s="7" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="7" t="s">
+        <v>813</v>
+      </c>
+      <c r="F142" s="7" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="7" t="s">
+        <v>814</v>
+      </c>
+      <c r="F143" s="7" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="7" t="s">
+        <v>854</v>
+      </c>
+      <c r="F144" s="7" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="7" t="s">
+        <v>815</v>
+      </c>
+      <c r="F145" s="7" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="7" t="s">
+        <v>838</v>
+      </c>
+      <c r="F146" s="7" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="7" t="s">
+        <v>839</v>
+      </c>
+      <c r="F147" s="7" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="7" t="s">
+        <v>822</v>
+      </c>
+      <c r="F148" s="7" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="7" t="s">
+        <v>823</v>
+      </c>
+      <c r="F149" s="7" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="7" t="s">
+        <v>826</v>
+      </c>
+      <c r="F150" s="7" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="7" t="s">
+        <v>824</v>
+      </c>
+      <c r="F151" s="7" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="7" t="s">
+        <v>825</v>
+      </c>
+      <c r="F152" s="7" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="7" t="s">
+        <v>827</v>
+      </c>
+      <c r="F153" s="7" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="7" t="s">
+        <v>813</v>
+      </c>
+      <c r="F154" s="7" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="7" t="s">
+        <v>814</v>
+      </c>
+      <c r="F155" s="7" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="7" t="s">
+        <v>840</v>
+      </c>
+      <c r="F156" s="7" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="7" t="s">
+        <v>815</v>
+      </c>
+      <c r="F157" s="7" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="7" t="s">
+        <v>833</v>
+      </c>
+      <c r="F158" s="7" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="7" t="s">
+        <v>944</v>
+      </c>
+      <c r="F159" s="7" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="7" t="s">
+        <v>822</v>
+      </c>
+      <c r="F160" s="7" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="7" t="s">
+        <v>823</v>
+      </c>
+      <c r="F161" s="7" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="7" t="s">
+        <v>826</v>
+      </c>
+      <c r="F162" s="7" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="7" t="s">
+        <v>824</v>
+      </c>
+      <c r="F163" s="7" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="7" t="s">
+        <v>825</v>
+      </c>
+      <c r="F164" s="7" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="7" t="s">
+        <v>827</v>
+      </c>
+      <c r="F165" s="7" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="7" t="s">
+        <v>813</v>
+      </c>
+      <c r="F166" s="7" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="7" t="s">
+        <v>814</v>
+      </c>
+      <c r="F167" s="7" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="7" t="s">
+        <v>841</v>
+      </c>
+      <c r="F168" s="7" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="7" t="s">
+        <v>815</v>
+      </c>
+      <c r="F169" s="7" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="7" t="s">
+        <v>842</v>
+      </c>
+      <c r="F170" s="7" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="7" t="s">
+        <v>945</v>
+      </c>
+      <c r="F171" s="7" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="7" t="s">
+        <v>822</v>
+      </c>
+      <c r="F172" s="7" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="7" t="s">
+        <v>823</v>
+      </c>
+      <c r="F173" s="7" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="7" t="s">
+        <v>826</v>
+      </c>
+      <c r="F174" s="7" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="7" t="s">
+        <v>824</v>
+      </c>
+      <c r="F175" s="7" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="7" t="s">
+        <v>825</v>
+      </c>
+      <c r="F176" s="7" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="7" t="s">
+        <v>827</v>
+      </c>
+      <c r="F177" s="7" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="7" t="s">
+        <v>813</v>
+      </c>
+      <c r="F178" s="7" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="7" t="s">
+        <v>814</v>
+      </c>
+      <c r="F179" s="7" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="7" t="s">
+        <v>843</v>
+      </c>
+      <c r="F180" s="7" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="7" t="s">
+        <v>815</v>
+      </c>
+      <c r="F181" s="7" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="7" t="s">
+        <v>844</v>
+      </c>
+      <c r="F182" s="7" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="7" t="s">
+        <v>944</v>
+      </c>
+      <c r="F183" s="7" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="7" t="s">
+        <v>822</v>
+      </c>
+      <c r="F184" s="7" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="7" t="s">
+        <v>823</v>
+      </c>
+      <c r="F185" s="7" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="7" t="s">
+        <v>826</v>
+      </c>
+      <c r="F186" s="7" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="7" t="s">
+        <v>824</v>
+      </c>
+      <c r="F187" s="7" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="7" t="s">
+        <v>825</v>
+      </c>
+      <c r="F188" s="7" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="7" t="s">
+        <v>827</v>
+      </c>
+      <c r="F189" s="7" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="7" t="s">
+        <v>813</v>
+      </c>
+      <c r="F190" s="7" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="7" t="s">
+        <v>814</v>
+      </c>
+      <c r="F191" s="7" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="7" t="s">
+        <v>845</v>
+      </c>
+      <c r="F192" s="7" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="7" t="s">
+        <v>815</v>
+      </c>
+      <c r="F193" s="7" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="7" t="s">
+        <v>846</v>
+      </c>
+      <c r="F194" s="7" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="7" t="s">
+        <v>946</v>
+      </c>
+      <c r="F195" s="7" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="7" t="s">
+        <v>822</v>
+      </c>
+      <c r="F196" s="7" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="7" t="s">
+        <v>823</v>
+      </c>
+      <c r="F197" s="7" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="7" t="s">
+        <v>826</v>
+      </c>
+      <c r="F198" s="7" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="7" t="s">
+        <v>824</v>
+      </c>
+      <c r="F199" s="7" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="7" t="s">
+        <v>825</v>
+      </c>
+      <c r="F200" s="7" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="7" t="s">
+        <v>827</v>
+      </c>
+      <c r="F201" s="7" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="7" t="s">
+        <v>813</v>
+      </c>
+      <c r="F202" s="7" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="7" t="s">
+        <v>814</v>
+      </c>
+      <c r="F203" s="7" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204" s="7" t="s">
+        <v>847</v>
+      </c>
+      <c r="F204" s="7" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205" s="7" t="s">
+        <v>815</v>
+      </c>
+      <c r="F205" s="28" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206" s="7" t="s">
+        <v>848</v>
+      </c>
+      <c r="F206" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207" s="7" t="s">
+        <v>945</v>
+      </c>
+      <c r="F207" s="7" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208" s="7" t="s">
+        <v>822</v>
+      </c>
+      <c r="F208" s="7" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209" s="7" t="s">
+        <v>823</v>
+      </c>
+      <c r="F209" s="7" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210" s="7" t="s">
+        <v>826</v>
+      </c>
+      <c r="F210" s="7" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A211" s="7" t="s">
+        <v>824</v>
+      </c>
+      <c r="F211" s="7" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212" s="7" t="s">
+        <v>825</v>
+      </c>
+      <c r="F212" s="7" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213" s="7" t="s">
+        <v>827</v>
+      </c>
+      <c r="F213" s="7" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214" s="7" t="s">
+        <v>813</v>
+      </c>
+      <c r="F214" s="7" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A215" s="7" t="s">
+        <v>814</v>
+      </c>
+      <c r="F215" s="7" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A216" s="7" t="s">
+        <v>849</v>
+      </c>
+      <c r="F216" s="7" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A217" s="7" t="s">
+        <v>815</v>
+      </c>
+      <c r="F217" s="7" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A218" s="7" t="s">
+        <v>850</v>
+      </c>
+      <c r="F218" s="7" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A219" s="7" t="s">
+        <v>945</v>
+      </c>
+      <c r="F219" s="7" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A220" s="7" t="s">
+        <v>822</v>
+      </c>
+      <c r="F220" s="7" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A221" s="7" t="s">
+        <v>823</v>
+      </c>
+      <c r="F221" s="7" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A222" s="7" t="s">
+        <v>826</v>
+      </c>
+      <c r="F222" s="7" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A223" s="7" t="s">
+        <v>824</v>
+      </c>
+      <c r="F223" s="7" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A224" s="7" t="s">
+        <v>825</v>
+      </c>
+      <c r="F224" s="7" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A225" s="7" t="s">
+        <v>827</v>
+      </c>
+      <c r="F225" s="7" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A226" s="7" t="s">
+        <v>813</v>
+      </c>
+      <c r="F226" s="7" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A227" s="7" t="s">
+        <v>814</v>
+      </c>
+      <c r="F227" s="7" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A228" s="7" t="s">
+        <v>851</v>
+      </c>
+      <c r="F228" s="7" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A229" s="7" t="s">
+        <v>815</v>
+      </c>
+      <c r="F229" s="7" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A230" s="7" t="s">
+        <v>852</v>
+      </c>
+      <c r="F230" s="7" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A231" s="7" t="s">
+        <v>945</v>
+      </c>
+      <c r="F231" s="7" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A232" s="7" t="s">
+        <v>822</v>
+      </c>
+      <c r="F232" s="7" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A233" s="7" t="s">
+        <v>823</v>
+      </c>
+      <c r="F233" s="7" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A234" s="7" t="s">
+        <v>826</v>
+      </c>
+      <c r="F234" s="7" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A235" s="7" t="s">
+        <v>824</v>
+      </c>
+      <c r="F235" s="7" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A236" s="7" t="s">
+        <v>825</v>
+      </c>
+      <c r="F236" s="7" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A237" s="7" t="s">
+        <v>816</v>
+      </c>
+      <c r="F237" s="7" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>817</v>
+      </c>
+      <c r="F238" s="7" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A239" s="7" t="s">
+        <v>818</v>
+      </c>
+      <c r="F239" s="7" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A240" s="7" t="s">
+        <v>938</v>
+      </c>
+      <c r="F240" s="7" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A241" s="7" t="s">
+        <v>813</v>
+      </c>
+      <c r="F241" s="7" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A242" s="7" t="s">
+        <v>879</v>
+      </c>
+      <c r="F242" s="7" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A243" s="7" t="s">
+        <v>880</v>
+      </c>
+      <c r="F243" s="7" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A244" s="7" t="s">
+        <v>881</v>
+      </c>
+      <c r="F244" s="7" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A245" s="7" t="s">
+        <v>882</v>
+      </c>
+      <c r="F245" s="7" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A246" s="7" t="s">
+        <v>883</v>
+      </c>
+      <c r="F246" s="7" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A247" s="7" t="s">
+        <v>884</v>
+      </c>
+      <c r="F247" s="7" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A248" s="7" t="s">
+        <v>885</v>
+      </c>
+      <c r="F248" s="7" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A249" s="7" t="s">
+        <v>886</v>
+      </c>
+      <c r="F249" s="7" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A250" s="7" t="s">
+        <v>887</v>
+      </c>
+      <c r="F250" s="7" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A251" s="7" t="s">
+        <v>888</v>
+      </c>
+      <c r="F251" s="7" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A252" s="7" t="s">
+        <v>808</v>
+      </c>
+      <c r="F252" s="7" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A253" s="7" t="s">
+        <v>889</v>
+      </c>
+      <c r="F253" s="7" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A254" s="7" t="s">
+        <v>890</v>
+      </c>
+      <c r="F254" s="7" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A255" s="7" t="s">
+        <v>891</v>
+      </c>
+      <c r="F255" s="7" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A256" s="7" t="s">
+        <v>892</v>
+      </c>
+      <c r="F256" s="7" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A257" s="7" t="s">
+        <v>884</v>
+      </c>
+      <c r="F257" s="7" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A258" s="7" t="s">
+        <v>885</v>
+      </c>
+      <c r="F258" s="7" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A259" s="7" t="s">
+        <v>893</v>
+      </c>
+      <c r="F259" s="7" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A260" s="7" t="s">
+        <v>894</v>
+      </c>
+      <c r="F260" s="7" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A261" s="7" t="s">
+        <v>895</v>
+      </c>
+      <c r="F261" s="7" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A262" s="7" t="s">
+        <v>808</v>
+      </c>
+      <c r="F262" s="7" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A263" s="7" t="s">
+        <v>896</v>
+      </c>
+      <c r="F263" s="7" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A264" s="7" t="s">
+        <v>897</v>
+      </c>
+      <c r="F264" s="7" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A265" s="7" t="s">
+        <v>898</v>
+      </c>
+      <c r="F265" s="7" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A266" s="7" t="s">
+        <v>899</v>
+      </c>
+      <c r="F266" s="7" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A267" s="7" t="s">
+        <v>884</v>
+      </c>
+      <c r="F267" s="7" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A268" s="7" t="s">
+        <v>900</v>
+      </c>
+      <c r="F268" s="7" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A269" s="7" t="s">
+        <v>901</v>
+      </c>
+      <c r="F269" s="7" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A270" s="7" t="s">
+        <v>902</v>
+      </c>
+      <c r="F270" s="7" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A271" s="7" t="s">
+        <v>888</v>
+      </c>
+      <c r="F271" s="7" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A272" s="7" t="s">
+        <v>808</v>
+      </c>
+      <c r="F272" s="7" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A273" s="7" t="s">
+        <v>903</v>
+      </c>
+      <c r="F273" s="7" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A274" s="7" t="s">
+        <v>904</v>
+      </c>
+      <c r="F274" s="7" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A275" s="7" t="s">
+        <v>905</v>
+      </c>
+      <c r="F275" s="7" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A276" s="7" t="s">
+        <v>892</v>
+      </c>
+      <c r="F276" s="7" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A277" s="7" t="s">
+        <v>884</v>
+      </c>
+      <c r="F277" s="7" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A278" s="7" t="s">
+        <v>906</v>
+      </c>
+      <c r="F278" s="7" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A279" s="7" t="s">
+        <v>907</v>
+      </c>
+      <c r="F279" s="7" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A280" s="7" t="s">
+        <v>894</v>
+      </c>
+      <c r="F280" s="7" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A281" s="7" t="s">
+        <v>895</v>
+      </c>
+      <c r="F281" s="7" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A282" s="7" t="s">
+        <v>808</v>
+      </c>
+      <c r="F282" s="7" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A283" s="7" t="s">
+        <v>908</v>
+      </c>
+      <c r="F283" s="7" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A284" s="7" t="s">
+        <v>909</v>
+      </c>
+      <c r="F284" s="7" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A285" s="7" t="s">
+        <v>910</v>
+      </c>
+      <c r="F285" s="7" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A286" s="7" t="s">
+        <v>892</v>
+      </c>
+      <c r="F286" s="7" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A287" s="7" t="s">
+        <v>884</v>
+      </c>
+      <c r="F287" s="7" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A288" s="7" t="s">
+        <v>911</v>
+      </c>
+      <c r="F288" s="7" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A289" s="7" t="s">
+        <v>912</v>
+      </c>
+      <c r="F289" s="7" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A290" s="7" t="s">
+        <v>913</v>
+      </c>
+      <c r="F290" s="7" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A291" s="7" t="s">
+        <v>888</v>
+      </c>
+      <c r="F291" s="7" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A292" s="7" t="s">
+        <v>871</v>
+      </c>
+      <c r="F292" s="7" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A293" s="7" t="s">
+        <v>819</v>
+      </c>
+      <c r="F293" s="7" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A294" s="7" t="s">
+        <v>914</v>
+      </c>
+      <c r="F294" s="7" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A295" s="7" t="s">
+        <v>915</v>
+      </c>
+      <c r="F295" s="7" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A296" s="7" t="s">
+        <v>916</v>
+      </c>
+      <c r="F296" s="7" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A297" s="7" t="s">
+        <v>917</v>
+      </c>
+      <c r="F297" s="7" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A298" s="7" t="s">
+        <v>892</v>
+      </c>
+      <c r="F298" s="7" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A299" s="7" t="s">
+        <v>884</v>
+      </c>
+      <c r="F299" s="7" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A300" s="7" t="s">
+        <v>918</v>
+      </c>
+      <c r="F300" s="7" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A301" s="7" t="s">
+        <v>808</v>
+      </c>
+      <c r="F301" s="7" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A302" s="7" t="s">
+        <v>919</v>
+      </c>
+      <c r="F302" s="7" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A303" s="7" t="s">
+        <v>920</v>
+      </c>
+      <c r="F303" s="7" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A304" s="7" t="s">
+        <v>921</v>
+      </c>
+      <c r="F304" s="7" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A305" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="F305" s="7" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A306" s="7" t="s">
+        <v>884</v>
+      </c>
+      <c r="F306" s="7" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A307" s="7" t="s">
+        <v>923</v>
+      </c>
+      <c r="F307" s="7" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A308" s="7" t="s">
+        <v>808</v>
+      </c>
+      <c r="F308" s="7" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A309" s="7" t="s">
+        <v>924</v>
+      </c>
+      <c r="F309" s="7" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A310" s="7" t="s">
+        <v>925</v>
+      </c>
+      <c r="F310" s="7" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A311" s="7" t="s">
+        <v>926</v>
+      </c>
+      <c r="F311" s="7" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A312" s="7" t="s">
+        <v>927</v>
+      </c>
+      <c r="F312" s="7" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A313" s="7" t="s">
+        <v>884</v>
+      </c>
+      <c r="F313" s="7" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A314" s="7" t="s">
+        <v>928</v>
+      </c>
+      <c r="F314" s="7" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A315" s="7" t="s">
+        <v>808</v>
+      </c>
+      <c r="F315" s="7" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A316" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="F316" s="7" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A317" s="7" t="s">
+        <v>930</v>
+      </c>
+      <c r="F317" s="7" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A318" s="7" t="s">
+        <v>931</v>
+      </c>
+      <c r="F318" s="7" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A319" s="7" t="s">
+        <v>883</v>
+      </c>
+      <c r="F319" s="7" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A320" s="7" t="s">
+        <v>884</v>
+      </c>
+      <c r="F320" s="7" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A321" s="7" t="s">
+        <v>932</v>
+      </c>
+      <c r="F321" s="7" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A322" s="7" t="s">
+        <v>808</v>
+      </c>
+      <c r="F322" s="7" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A323" s="7" t="s">
+        <v>933</v>
+      </c>
+      <c r="F323" s="7" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A324" s="7" t="s">
+        <v>934</v>
+      </c>
+      <c r="F324" s="7" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A325" s="7" t="s">
+        <v>935</v>
+      </c>
+      <c r="F325" s="7" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A326" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="F326" s="7" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A327" s="7" t="s">
+        <v>884</v>
+      </c>
+      <c r="F327" s="7" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A328" s="7" t="s">
+        <v>936</v>
+      </c>
+      <c r="F328" s="7" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A329" s="7" t="s">
+        <v>871</v>
+      </c>
+      <c r="F329" s="7" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A330" s="7" t="s">
+        <v>809</v>
+      </c>
+      <c r="F330" s="7" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A331" s="7" t="s">
+        <v>827</v>
+      </c>
+      <c r="F331" s="7" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A332" s="7" t="s">
+        <v>813</v>
+      </c>
+      <c r="F332" s="7" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A333" s="7" t="s">
+        <v>879</v>
+      </c>
+      <c r="F333" s="7" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A334" s="7" t="s">
+        <v>880</v>
+      </c>
+      <c r="F334" s="7" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A335" s="7" t="s">
+        <v>881</v>
+      </c>
+      <c r="F335" s="7" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A336" s="7" t="s">
+        <v>882</v>
+      </c>
+      <c r="F336" s="7" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A337" s="7" t="s">
+        <v>883</v>
+      </c>
+      <c r="F337" s="7" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A338" s="7" t="s">
+        <v>884</v>
+      </c>
+      <c r="F338" s="7" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A339" s="7" t="s">
+        <v>885</v>
+      </c>
+      <c r="F339" s="7" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A340" s="7" t="s">
+        <v>886</v>
+      </c>
+      <c r="F340" s="7" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A341" s="7" t="s">
+        <v>887</v>
+      </c>
+      <c r="F341" s="7" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A342" s="7" t="s">
+        <v>888</v>
+      </c>
+      <c r="F342" s="7" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A343" s="7" t="s">
+        <v>808</v>
+      </c>
+      <c r="F343" s="7" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A344" s="7" t="s">
+        <v>889</v>
+      </c>
+      <c r="F344" s="7" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A345" s="7" t="s">
+        <v>890</v>
+      </c>
+      <c r="F345" s="7" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A346" s="7" t="s">
+        <v>891</v>
+      </c>
+      <c r="F346" s="7" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A347" s="7" t="s">
+        <v>892</v>
+      </c>
+      <c r="F347" s="7" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A348" s="7" t="s">
+        <v>884</v>
+      </c>
+      <c r="F348" s="7" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A349" s="7" t="s">
+        <v>885</v>
+      </c>
+      <c r="F349" s="7" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A350" s="7" t="s">
+        <v>893</v>
+      </c>
+      <c r="F350" s="7" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A351" s="7" t="s">
+        <v>894</v>
+      </c>
+      <c r="F351" s="7" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A352" s="7" t="s">
+        <v>895</v>
+      </c>
+      <c r="F352" s="7" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A353" s="7" t="s">
+        <v>808</v>
+      </c>
+      <c r="F353" s="7" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A354" s="7" t="s">
+        <v>896</v>
+      </c>
+      <c r="F354" s="7" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A355" s="7" t="s">
+        <v>897</v>
+      </c>
+      <c r="F355" s="7" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A356" s="7" t="s">
+        <v>898</v>
+      </c>
+      <c r="F356" s="7" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A357" s="7" t="s">
+        <v>899</v>
+      </c>
+      <c r="F357" s="7" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A358" s="7" t="s">
+        <v>884</v>
+      </c>
+      <c r="F358" s="7" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A359" s="7" t="s">
+        <v>900</v>
+      </c>
+      <c r="F359" s="7" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A360" s="7" t="s">
+        <v>901</v>
+      </c>
+      <c r="F360" s="7" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A361" s="7" t="s">
+        <v>902</v>
+      </c>
+      <c r="F361" s="7" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A362" s="7" t="s">
+        <v>888</v>
+      </c>
+      <c r="F362" s="7" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A363" s="7" t="s">
+        <v>808</v>
+      </c>
+      <c r="F363" s="7" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A364" s="7" t="s">
+        <v>903</v>
+      </c>
+      <c r="F364" s="7" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A365" s="7" t="s">
+        <v>904</v>
+      </c>
+      <c r="F365" s="7" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A366" s="7" t="s">
+        <v>905</v>
+      </c>
+      <c r="F366" s="7" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A367" s="7" t="s">
+        <v>892</v>
+      </c>
+      <c r="F367" s="7" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A368" s="7" t="s">
+        <v>884</v>
+      </c>
+      <c r="F368" s="7" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A369" s="7" t="s">
+        <v>906</v>
+      </c>
+      <c r="F369" s="7" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A370" s="7" t="s">
+        <v>907</v>
+      </c>
+      <c r="F370" s="7" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A371" s="7" t="s">
+        <v>894</v>
+      </c>
+      <c r="F371" s="7" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A372" s="7" t="s">
+        <v>895</v>
+      </c>
+      <c r="F372" s="7" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A373" s="7" t="s">
+        <v>808</v>
+      </c>
+      <c r="F373" s="7" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A374" s="7" t="s">
+        <v>908</v>
+      </c>
+      <c r="F374" s="7" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A375" s="7" t="s">
+        <v>909</v>
+      </c>
+      <c r="F375" s="7" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A376" s="7" t="s">
+        <v>910</v>
+      </c>
+      <c r="F376" s="7" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A377" s="7" t="s">
+        <v>892</v>
+      </c>
+      <c r="F377" s="7" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A378" s="7" t="s">
+        <v>884</v>
+      </c>
+      <c r="F378" s="7" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A379" s="7" t="s">
+        <v>911</v>
+      </c>
+      <c r="F379" s="7" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A380" s="7" t="s">
+        <v>912</v>
+      </c>
+      <c r="F380" s="7" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A381" s="7" t="s">
+        <v>913</v>
+      </c>
+      <c r="F381" s="7" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A382" s="7" t="s">
+        <v>888</v>
+      </c>
+      <c r="F382" s="7" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A383" s="7" t="s">
+        <v>871</v>
+      </c>
+      <c r="F383" s="7" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A384" s="7" t="s">
+        <v>819</v>
+      </c>
+      <c r="F384" s="7" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A385" s="7" t="s">
+        <v>914</v>
+      </c>
+      <c r="F385" s="7" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A386" s="7" t="s">
+        <v>915</v>
+      </c>
+      <c r="F386" s="7" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A387" s="7" t="s">
+        <v>916</v>
+      </c>
+      <c r="F387" s="7" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A388" s="7" t="s">
+        <v>917</v>
+      </c>
+      <c r="F388" s="7" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A389" s="7" t="s">
+        <v>892</v>
+      </c>
+      <c r="F389" s="7" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A390" s="7" t="s">
+        <v>884</v>
+      </c>
+      <c r="F390" s="7" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A391" s="7" t="s">
+        <v>918</v>
+      </c>
+      <c r="F391" s="7" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A392" s="7" t="s">
+        <v>808</v>
+      </c>
+      <c r="F392" s="7" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A393" s="7" t="s">
+        <v>919</v>
+      </c>
+      <c r="F393" s="7" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A394" s="7" t="s">
+        <v>920</v>
+      </c>
+      <c r="F394" s="7" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A395" s="7" t="s">
+        <v>921</v>
+      </c>
+      <c r="F395" s="7" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A396" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="F396" s="7" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A397" s="7" t="s">
+        <v>884</v>
+      </c>
+      <c r="F397" s="7" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A398" s="7" t="s">
+        <v>923</v>
+      </c>
+      <c r="F398" s="7" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A399" s="7" t="s">
+        <v>808</v>
+      </c>
+      <c r="F399" s="7" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A400" s="7" t="s">
+        <v>924</v>
+      </c>
+      <c r="F400" s="7" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A401" s="7" t="s">
+        <v>925</v>
+      </c>
+      <c r="F401" s="7" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A402" s="7" t="s">
+        <v>926</v>
+      </c>
+      <c r="F402" s="7" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A403" s="7" t="s">
+        <v>927</v>
+      </c>
+      <c r="F403" s="7" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A404" s="7" t="s">
+        <v>884</v>
+      </c>
+      <c r="F404" s="7" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A405" s="7" t="s">
+        <v>928</v>
+      </c>
+      <c r="F405" s="7" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A406" s="7" t="s">
+        <v>808</v>
+      </c>
+      <c r="F406" s="7" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A407" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="F407" s="7" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A408" s="7" t="s">
+        <v>930</v>
+      </c>
+      <c r="F408" s="7" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A409" s="7" t="s">
+        <v>931</v>
+      </c>
+      <c r="F409" s="7" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A410" s="7" t="s">
+        <v>883</v>
+      </c>
+      <c r="F410" s="7" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A411" s="7" t="s">
+        <v>884</v>
+      </c>
+      <c r="F411" s="7" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A412" s="7" t="s">
+        <v>932</v>
+      </c>
+      <c r="F412" s="7" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A413" s="7" t="s">
+        <v>808</v>
+      </c>
+      <c r="F413" s="7" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A414" s="7" t="s">
+        <v>933</v>
+      </c>
+      <c r="F414" s="7" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A415" s="7" t="s">
+        <v>934</v>
+      </c>
+      <c r="F415" s="7" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A416" s="7" t="s">
+        <v>935</v>
+      </c>
+      <c r="F416" s="7" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A417" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="F417" s="7" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A418" s="7" t="s">
+        <v>884</v>
+      </c>
+      <c r="F418" s="7" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A419" s="7" t="s">
+        <v>936</v>
+      </c>
+      <c r="F419" s="7" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A420" s="7" t="s">
+        <v>871</v>
+      </c>
+      <c r="F420" s="7" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A421" s="7" t="s">
+        <v>809</v>
+      </c>
+      <c r="F421" s="7" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A422" s="7" t="s">
+        <v>816</v>
+      </c>
+      <c r="F422" s="7" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A423" s="7" t="s">
+        <v>939</v>
+      </c>
+      <c r="F423" s="7" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A424" s="7" t="s">
+        <v>938</v>
+      </c>
+      <c r="F424" s="7" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A425" s="7" t="s">
+        <v>813</v>
+      </c>
+      <c r="F425" s="7" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A426" s="7" t="s">
+        <v>879</v>
+      </c>
+      <c r="F426" s="7" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A427" s="7" t="s">
+        <v>880</v>
+      </c>
+      <c r="F427" s="7" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A428" s="7" t="s">
+        <v>881</v>
+      </c>
+      <c r="F428" s="7" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A429" s="7" t="s">
+        <v>882</v>
+      </c>
+      <c r="F429" s="7" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A430" s="7" t="s">
+        <v>883</v>
+      </c>
+      <c r="F430" s="7" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A431" s="7" t="s">
+        <v>884</v>
+      </c>
+      <c r="F431" s="7" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A432" s="7" t="s">
+        <v>885</v>
+      </c>
+      <c r="F432" s="7" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A433" s="7" t="s">
+        <v>886</v>
+      </c>
+      <c r="F433" s="7" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A434" s="7" t="s">
+        <v>887</v>
+      </c>
+      <c r="F434" s="7" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A435" s="7" t="s">
+        <v>888</v>
+      </c>
+      <c r="F435" s="7" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A436" s="7" t="s">
+        <v>808</v>
+      </c>
+      <c r="F436" s="7" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A437" s="7" t="s">
+        <v>889</v>
+      </c>
+      <c r="F437" s="7" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A438" s="7" t="s">
+        <v>890</v>
+      </c>
+      <c r="F438" s="7" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A439" s="7" t="s">
+        <v>891</v>
+      </c>
+      <c r="F439" s="7" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A440" s="7" t="s">
+        <v>892</v>
+      </c>
+      <c r="F440" s="7" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A441" s="7" t="s">
+        <v>884</v>
+      </c>
+      <c r="F441" s="7" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A442" s="7" t="s">
+        <v>885</v>
+      </c>
+      <c r="F442" s="7" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A443" s="7" t="s">
+        <v>893</v>
+      </c>
+      <c r="F443" s="7" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A444" s="7" t="s">
+        <v>894</v>
+      </c>
+      <c r="F444" s="7" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A445" s="7" t="s">
+        <v>895</v>
+      </c>
+      <c r="F445" s="7" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A446" s="7" t="s">
+        <v>808</v>
+      </c>
+      <c r="F446" s="7" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A447" s="7" t="s">
+        <v>896</v>
+      </c>
+      <c r="F447" s="7" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A448" s="7" t="s">
+        <v>897</v>
+      </c>
+      <c r="F448" s="7" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A449" s="7" t="s">
+        <v>898</v>
+      </c>
+      <c r="F449" s="7" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A450" s="7" t="s">
+        <v>899</v>
+      </c>
+      <c r="F450" s="7" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A451" s="7" t="s">
+        <v>884</v>
+      </c>
+      <c r="F451" s="7" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A452" s="7" t="s">
+        <v>900</v>
+      </c>
+      <c r="F452" s="7" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A453" s="7" t="s">
+        <v>901</v>
+      </c>
+      <c r="F453" s="7" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A454" s="7" t="s">
+        <v>902</v>
+      </c>
+      <c r="F454" s="7" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A455" s="7" t="s">
+        <v>888</v>
+      </c>
+      <c r="F455" s="7" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A456" s="7" t="s">
+        <v>808</v>
+      </c>
+      <c r="F456" s="7" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A457" s="7" t="s">
+        <v>903</v>
+      </c>
+      <c r="F457" s="7" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A458" s="7" t="s">
+        <v>904</v>
+      </c>
+      <c r="F458" s="7" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A459" s="7" t="s">
+        <v>905</v>
+      </c>
+      <c r="F459" s="7" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A460" s="7" t="s">
+        <v>892</v>
+      </c>
+      <c r="F460" s="7" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A461" s="7" t="s">
+        <v>884</v>
+      </c>
+      <c r="F461" s="7" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A462" s="7" t="s">
+        <v>906</v>
+      </c>
+      <c r="F462" s="7" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A463" s="7" t="s">
+        <v>907</v>
+      </c>
+      <c r="F463" s="7" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A464" s="7" t="s">
+        <v>894</v>
+      </c>
+      <c r="F464" s="7" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A465" s="7" t="s">
+        <v>895</v>
+      </c>
+      <c r="F465" s="7" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A466" s="7" t="s">
+        <v>808</v>
+      </c>
+      <c r="F466" s="7" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A467" s="7" t="s">
+        <v>908</v>
+      </c>
+      <c r="F467" s="7" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A468" s="7" t="s">
+        <v>909</v>
+      </c>
+      <c r="F468" s="7" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A469" s="7" t="s">
+        <v>910</v>
+      </c>
+      <c r="F469" s="7" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A470" s="7" t="s">
+        <v>892</v>
+      </c>
+      <c r="F470" s="7" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A471" s="7" t="s">
+        <v>884</v>
+      </c>
+      <c r="F471" s="7" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A472" s="7" t="s">
+        <v>911</v>
+      </c>
+      <c r="F472" s="7" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A473" s="7" t="s">
+        <v>912</v>
+      </c>
+      <c r="F473" s="7" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A474" s="7" t="s">
+        <v>913</v>
+      </c>
+      <c r="F474" s="7" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A475" s="7" t="s">
+        <v>888</v>
+      </c>
+      <c r="F475" s="7" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A476" s="7" t="s">
+        <v>871</v>
+      </c>
+      <c r="F476" s="7" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A477" s="7" t="s">
+        <v>819</v>
+      </c>
+      <c r="F477" s="7" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A478" s="7" t="s">
+        <v>914</v>
+      </c>
+      <c r="F478" s="7" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A479" s="7" t="s">
+        <v>915</v>
+      </c>
+      <c r="F479" s="7" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A480" s="7" t="s">
+        <v>916</v>
+      </c>
+      <c r="F480" s="7" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A481" s="7" t="s">
+        <v>917</v>
+      </c>
+      <c r="F481" s="7" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A482" s="7" t="s">
+        <v>892</v>
+      </c>
+      <c r="F482" s="7" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A483" s="7" t="s">
+        <v>884</v>
+      </c>
+      <c r="F483" s="7" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A484" s="7" t="s">
+        <v>918</v>
+      </c>
+      <c r="F484" s="7" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A485" s="7" t="s">
+        <v>808</v>
+      </c>
+      <c r="F485" s="7" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A486" s="7" t="s">
+        <v>919</v>
+      </c>
+      <c r="F486" s="7" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A487" s="7" t="s">
+        <v>920</v>
+      </c>
+      <c r="F487" s="7" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A488" s="7" t="s">
+        <v>921</v>
+      </c>
+      <c r="F488" s="7" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A489" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="F489" s="7" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A490" s="7" t="s">
+        <v>884</v>
+      </c>
+      <c r="F490" s="7" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A491" s="7" t="s">
+        <v>923</v>
+      </c>
+      <c r="F491" s="7" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A492" s="7" t="s">
+        <v>808</v>
+      </c>
+      <c r="F492" s="7" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A493" s="7" t="s">
+        <v>924</v>
+      </c>
+      <c r="F493" s="7" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A494" s="7" t="s">
+        <v>925</v>
+      </c>
+      <c r="F494" s="7" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A495" s="7" t="s">
+        <v>926</v>
+      </c>
+      <c r="F495" s="7" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A496" s="7" t="s">
+        <v>927</v>
+      </c>
+      <c r="F496" s="7" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A497" s="7" t="s">
+        <v>884</v>
+      </c>
+      <c r="F497" s="7" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A498" s="7" t="s">
+        <v>928</v>
+      </c>
+      <c r="F498" s="7" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A499" s="7" t="s">
+        <v>808</v>
+      </c>
+      <c r="F499" s="7" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A500" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="F500" s="7" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A501" s="7" t="s">
+        <v>930</v>
+      </c>
+      <c r="F501" s="7" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A502" s="7" t="s">
+        <v>931</v>
+      </c>
+      <c r="F502" s="7" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A503" s="7" t="s">
+        <v>883</v>
+      </c>
+      <c r="F503" s="7" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A504" s="7" t="s">
+        <v>884</v>
+      </c>
+      <c r="F504" s="7" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A505" s="7" t="s">
+        <v>932</v>
+      </c>
+      <c r="F505" s="7" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A506" s="7" t="s">
+        <v>808</v>
+      </c>
+      <c r="F506" s="7" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A507" s="7" t="s">
+        <v>933</v>
+      </c>
+      <c r="F507" s="7" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A508" s="7" t="s">
+        <v>934</v>
+      </c>
+      <c r="F508" s="7" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A509" s="7" t="s">
+        <v>935</v>
+      </c>
+      <c r="F509" s="7" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A510" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="F510" s="7" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A511" s="7" t="s">
+        <v>884</v>
+      </c>
+      <c r="F511" s="7" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A512" s="7" t="s">
+        <v>936</v>
+      </c>
+      <c r="F512" s="7" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A513" s="7" t="s">
+        <v>871</v>
+      </c>
+      <c r="F513" s="7" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A514" s="7" t="s">
+        <v>809</v>
+      </c>
+      <c r="F514" s="7" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A515" s="7" t="s">
+        <v>827</v>
+      </c>
+      <c r="F515" s="7" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A516" s="7" t="s">
+        <v>813</v>
+      </c>
+      <c r="F516" s="7" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A517" s="7" t="s">
+        <v>879</v>
+      </c>
+      <c r="F517" s="7" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A518" s="7" t="s">
+        <v>880</v>
+      </c>
+      <c r="F518" s="7" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A519" s="7" t="s">
+        <v>881</v>
+      </c>
+      <c r="F519" s="7" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A520" s="7" t="s">
+        <v>882</v>
+      </c>
+      <c r="F520" s="7" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A521" s="7" t="s">
+        <v>883</v>
+      </c>
+      <c r="F521" s="7" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="522" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A522" s="7" t="s">
+        <v>884</v>
+      </c>
+      <c r="F522" s="7" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A523" s="7" t="s">
+        <v>885</v>
+      </c>
+      <c r="F523" s="7" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A524" s="7" t="s">
+        <v>886</v>
+      </c>
+      <c r="F524" s="7" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A525" s="7" t="s">
+        <v>887</v>
+      </c>
+      <c r="F525" s="7" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="526" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A526" s="7" t="s">
+        <v>888</v>
+      </c>
+      <c r="F526" s="7" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="527" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A527" s="7" t="s">
+        <v>808</v>
+      </c>
+      <c r="F527" s="7" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="528" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A528" s="7" t="s">
+        <v>889</v>
+      </c>
+      <c r="F528" s="7" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A529" s="7" t="s">
+        <v>890</v>
+      </c>
+      <c r="F529" s="7" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="530" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A530" s="7" t="s">
+        <v>891</v>
+      </c>
+      <c r="F530" s="7" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="531" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A531" s="7" t="s">
+        <v>892</v>
+      </c>
+      <c r="F531" s="7" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="532" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A532" s="7" t="s">
+        <v>884</v>
+      </c>
+      <c r="F532" s="7" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="533" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A533" s="7" t="s">
+        <v>885</v>
+      </c>
+      <c r="F533" s="7" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="534" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A534" s="7" t="s">
+        <v>893</v>
+      </c>
+      <c r="F534" s="7" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="535" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A535" s="7" t="s">
+        <v>894</v>
+      </c>
+      <c r="F535" s="7" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="536" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A536" s="7" t="s">
+        <v>895</v>
+      </c>
+      <c r="F536" s="7" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="537" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A537" s="7" t="s">
+        <v>808</v>
+      </c>
+      <c r="F537" s="7" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="538" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A538" s="7" t="s">
+        <v>896</v>
+      </c>
+      <c r="F538" s="7" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="539" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A539" s="7" t="s">
+        <v>897</v>
+      </c>
+      <c r="F539" s="7" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="540" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A540" s="7" t="s">
+        <v>898</v>
+      </c>
+      <c r="F540" s="7" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="541" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A541" s="7" t="s">
+        <v>899</v>
+      </c>
+      <c r="F541" s="7" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="542" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A542" s="7" t="s">
+        <v>884</v>
+      </c>
+      <c r="F542" s="7" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="543" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A543" s="7" t="s">
+        <v>900</v>
+      </c>
+      <c r="F543" s="7" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="544" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A544" s="7" t="s">
+        <v>901</v>
+      </c>
+      <c r="F544" s="7" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="545" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A545" s="7" t="s">
+        <v>902</v>
+      </c>
+      <c r="F545" s="7" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="546" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A546" s="7" t="s">
+        <v>888</v>
+      </c>
+      <c r="F546" s="7" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="547" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A547" s="7" t="s">
+        <v>808</v>
+      </c>
+      <c r="F547" s="7" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="548" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A548" s="7" t="s">
+        <v>903</v>
+      </c>
+      <c r="F548" s="7" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="549" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A549" s="7" t="s">
+        <v>904</v>
+      </c>
+      <c r="F549" s="7" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="550" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A550" s="7" t="s">
+        <v>905</v>
+      </c>
+      <c r="F550" s="7" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="551" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A551" s="7" t="s">
+        <v>892</v>
+      </c>
+      <c r="F551" s="7" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="552" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A552" s="7" t="s">
+        <v>884</v>
+      </c>
+      <c r="F552" s="7" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="553" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A553" s="7" t="s">
+        <v>906</v>
+      </c>
+      <c r="F553" s="7" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="554" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A554" s="7" t="s">
+        <v>907</v>
+      </c>
+      <c r="F554" s="7" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="555" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A555" s="7" t="s">
+        <v>894</v>
+      </c>
+      <c r="F555" s="7" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="556" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A556" s="7" t="s">
+        <v>895</v>
+      </c>
+      <c r="F556" s="7" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="557" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A557" s="7" t="s">
+        <v>808</v>
+      </c>
+      <c r="F557" s="7" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="558" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A558" s="7" t="s">
+        <v>908</v>
+      </c>
+      <c r="F558" s="7" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="559" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A559" s="7" t="s">
+        <v>909</v>
+      </c>
+      <c r="F559" s="7" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="560" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A560" s="7" t="s">
+        <v>910</v>
+      </c>
+      <c r="F560" s="7" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="561" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A561" s="7" t="s">
+        <v>892</v>
+      </c>
+      <c r="F561" s="7" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="562" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A562" s="7" t="s">
+        <v>884</v>
+      </c>
+      <c r="F562" s="7" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="563" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A563" s="7" t="s">
+        <v>911</v>
+      </c>
+      <c r="F563" s="7" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="564" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A564" s="7" t="s">
+        <v>912</v>
+      </c>
+      <c r="F564" s="7" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="565" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A565" s="7" t="s">
+        <v>913</v>
+      </c>
+      <c r="F565" s="7" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="566" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A566" s="7" t="s">
+        <v>888</v>
+      </c>
+      <c r="F566" s="7" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="567" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A567" s="7" t="s">
+        <v>871</v>
+      </c>
+      <c r="F567" s="7" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="568" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A568" s="7" t="s">
+        <v>819</v>
+      </c>
+      <c r="F568" s="7" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="569" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A569" s="7" t="s">
+        <v>914</v>
+      </c>
+      <c r="F569" s="7" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="570" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A570" s="7" t="s">
+        <v>915</v>
+      </c>
+      <c r="F570" s="7" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="571" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A571" s="7" t="s">
+        <v>916</v>
+      </c>
+      <c r="F571" s="7" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="572" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A572" s="7" t="s">
+        <v>917</v>
+      </c>
+      <c r="F572" s="7" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="573" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A573" s="7" t="s">
+        <v>892</v>
+      </c>
+      <c r="F573" s="7" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="574" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A574" s="7" t="s">
+        <v>884</v>
+      </c>
+      <c r="F574" s="7" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="575" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A575" s="7" t="s">
+        <v>918</v>
+      </c>
+      <c r="F575" s="7" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="576" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A576" s="7" t="s">
+        <v>808</v>
+      </c>
+      <c r="F576" s="7" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="577" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A577" s="7" t="s">
+        <v>919</v>
+      </c>
+      <c r="F577" s="7" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="578" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A578" s="7" t="s">
+        <v>920</v>
+      </c>
+      <c r="F578" s="7" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="579" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A579" s="7" t="s">
+        <v>921</v>
+      </c>
+      <c r="F579" s="7" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="580" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A580" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="F580" s="7" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="581" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A581" s="7" t="s">
+        <v>884</v>
+      </c>
+      <c r="F581" s="7" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="582" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A582" s="7" t="s">
+        <v>923</v>
+      </c>
+      <c r="F582" s="7" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="583" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A583" s="7" t="s">
+        <v>808</v>
+      </c>
+      <c r="F583" s="7" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="584" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A584" s="7" t="s">
+        <v>924</v>
+      </c>
+      <c r="F584" s="7" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="585" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A585" s="7" t="s">
+        <v>925</v>
+      </c>
+      <c r="F585" s="7" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="586" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A586" s="7" t="s">
+        <v>926</v>
+      </c>
+      <c r="F586" s="7" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="587" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A587" s="7" t="s">
+        <v>927</v>
+      </c>
+      <c r="F587" s="7" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="588" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A588" s="7" t="s">
+        <v>884</v>
+      </c>
+      <c r="F588" s="7" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="589" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A589" s="7" t="s">
+        <v>928</v>
+      </c>
+      <c r="F589" s="7" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="590" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A590" s="7" t="s">
+        <v>808</v>
+      </c>
+      <c r="F590" s="7" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="591" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A591" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="F591" s="7" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="592" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A592" s="7" t="s">
+        <v>930</v>
+      </c>
+      <c r="F592" s="7" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="593" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A593" s="7" t="s">
+        <v>931</v>
+      </c>
+      <c r="F593" s="7" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="594" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A594" s="7" t="s">
+        <v>883</v>
+      </c>
+      <c r="F594" s="7" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="595" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A595" s="7" t="s">
+        <v>884</v>
+      </c>
+      <c r="F595" s="7" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="596" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A596" s="7" t="s">
+        <v>932</v>
+      </c>
+      <c r="F596" s="7" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="597" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A597" s="7" t="s">
+        <v>808</v>
+      </c>
+      <c r="F597" s="7" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="598" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A598" s="7" t="s">
+        <v>933</v>
+      </c>
+      <c r="F598" s="7" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="599" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A599" s="7" t="s">
+        <v>934</v>
+      </c>
+      <c r="F599" s="7" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="600" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A600" s="7" t="s">
+        <v>935</v>
+      </c>
+      <c r="F600" s="7" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="601" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A601" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="F601" s="7" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="602" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A602" s="7" t="s">
+        <v>884</v>
+      </c>
+      <c r="F602" s="7" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="603" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A603" s="7" t="s">
+        <v>936</v>
+      </c>
+      <c r="F603" s="7" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="604" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A604" s="7" t="s">
+        <v>871</v>
+      </c>
+      <c r="F604" s="7" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="605" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A605" s="7" t="s">
+        <v>809</v>
+      </c>
+      <c r="F605" s="7" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="606" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A606" s="7" t="s">
+        <v>816</v>
+      </c>
+      <c r="F606" s="7" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="607" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A607" s="7" t="s">
+        <v>830</v>
+      </c>
+      <c r="F607" s="7" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="608" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A608" t="s">
+        <v>830</v>
+      </c>
+      <c r="F608" s="7" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="609" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A609" t="s">
+        <v>820</v>
+      </c>
+      <c r="F609" s="7" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="610" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F610" s="7" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="611" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F611" s="7" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="612" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F612" s="7" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="613" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F613" s="7" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="614" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F614" s="7" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="615" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F615" s="7" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="616" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F616" s="7" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="617" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F617" s="7" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="618" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F618" s="7" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="619" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F619" s="7" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="620" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F620" s="7" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="621" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F621" s="7" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="622" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F622" s="7" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="623" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F623" s="7" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="624" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F624" s="7" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="625" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F625" s="7" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="626" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F626" s="7" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="627" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F627" s="7" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="628" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F628" s="7" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="629" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F629" s="7" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="630" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F630" s="7" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="631" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F631" s="7" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="632" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F632" s="7" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="633" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F633" s="7" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="634" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F634" s="7" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="635" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F635" s="7" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="636" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F636" s="7" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="637" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F637" s="7" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="638" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F638" s="7" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="639" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F639" s="7" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="640" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F640" s="7" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="641" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F641" s="7" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="642" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F642" s="7" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="643" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F643" s="7" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="644" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F644" s="7" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="645" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F645" s="7" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="646" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F646" s="7" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="647" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F647" s="7" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="648" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F648" s="7" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="649" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F649" s="7" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="650" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F650" s="7" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="651" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F651" s="7" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="652" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F652" s="7" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="653" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F653" s="7" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="654" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F654" s="7" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="655" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F655" s="7" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="656" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F656" s="7" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="657" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F657" s="7" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="658" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F658" s="7" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="659" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F659" s="7" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="660" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F660" s="7" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="661" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F661" s="7" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="662" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F662" s="7" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="663" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F663" s="7" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="664" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F664" s="7" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="665" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F665" s="7" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="666" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F666" s="7" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="667" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F667" s="7" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="668" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F668" s="7" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="669" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F669" s="7" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="670" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F670" s="7" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="671" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F671" s="7" t="s">
+        <v>820</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD49"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10:AD10"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="R37" sqref="R37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
